--- a/logindata.xlsx
+++ b/logindata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -27,29 +27,36 @@
     <t>password</t>
   </si>
   <si>
-    <t>admin02@mailinator.com</t>
-  </si>
-  <si>
-    <t>tld01@mailinator.com</t>
-  </si>
-  <si>
-    <t>as1234</t>
-  </si>
-  <si>
     <t>abcd3212</t>
+  </si>
+  <si>
+    <t>jainmuk@gmail.com</t>
+  </si>
+  <si>
+    <t>demouser</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,13 +76,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -375,7 +388,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -383,13 +396,24 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/logindata.xlsx
+++ b/logindata.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -359,7 +364,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -370,7 +375,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -416,4 +421,68 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>